--- a/biology/Zoologie/Étourneau_de_Ceylan/Étourneau_de_Ceylan.xlsx
+++ b/biology/Zoologie/Étourneau_de_Ceylan/Étourneau_de_Ceylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Ceylan</t>
+          <t>Étourneau_de_Ceylan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sturnornis, Sturnornis albofrontatus
 L’Étourneau de Ceylan (Sturnornis albofrontatus), unique représentant du genre Sturnornis, est une espèce d'oiseaux de la famille des Sturnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Ceylan</t>
+          <t>Étourneau_de_Ceylan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sturnornis albofrontatus a été décrite pour la première fois en 1854 par l'ornithologue britannique Edgar Leopold Layard (1824-1900) sous le protonyme d’Heterornis albofrontata[2].
-En 1879, l'ornithologue australien William Vincent Legge (d)[2] crée le genre Sturnornis pour y classer l'espèce Sturnus senex, synonyme de Heterornis albofrontata.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sturnornis albofrontatus a été décrite pour la première fois en 1854 par l'ornithologue britannique Edgar Leopold Layard (1824-1900) sous le protonyme d’Heterornis albofrontata.
+En 1879, l'ornithologue australien William Vincent Legge (d) crée le genre Sturnornis pour y classer l'espèce Sturnus senex, synonyme de Heterornis albofrontata.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Ceylan</t>
+          <t>Étourneau_de_Ceylan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les régions humides forestières du centre/sud-ouest du Sri Lanka.
 </t>
